--- a/demo/Results_rt/transform/rt/Posthoc_2.xlsx
+++ b/demo/Results_rt/transform/rt/Posthoc_2.xlsx
@@ -13,30 +13,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
+    <t>1</t>
   </si>
   <si>
     <t>B_1</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
+    <t>2</t>
   </si>
   <si>
     <t>B_2</t>
   </si>
   <si>
-    <t>b3</t>
+    <t>3</t>
   </si>
   <si>
     <t>emmCI_1</t>
@@ -160,7 +154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="true"/>
+    <col min="1" max="1" width="2.42578125" customWidth="true"/>
     <col min="2" max="2" width="4.28515625" customWidth="true"/>
     <col min="3" max="3" width="4.28515625" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
@@ -183,49 +177,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -233,31 +227,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="0">
-        <v>0.058489514842441429</v>
+        <v>0.05848951484074856</v>
       </c>
       <c r="G2" s="0">
-        <v>0.11697902968488283</v>
+        <v>0.11697902968149709</v>
       </c>
       <c r="H2" s="0">
-        <v>0.23075787535685333</v>
+        <v>0.23075787535875758</v>
       </c>
       <c r="I2" s="0">
-        <v>4.2009477345713711</v>
+        <v>4.200947734605851</v>
       </c>
       <c r="J2" s="0">
-        <v>3.5954298612374025</v>
+        <v>3.5954298612858722</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -266,46 +260,46 @@
         <v>523</v>
       </c>
       <c r="M2" s="0">
-        <v>0.16582673952931923</v>
+        <v>0.16582673953043697</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0068276890708771059</v>
+        <v>0.0068276890709685215</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="0">
-        <v>0.38168054951310271</v>
+        <v>0.38168054952489083</v>
       </c>
       <c r="G3" s="0">
-        <v>0.38168054951310271</v>
+        <v>0.38168054952489083</v>
       </c>
       <c r="H3" s="0">
-        <v>0.10892469119433379</v>
+        <v>0.10892469119182557</v>
       </c>
       <c r="I3" s="0">
-        <v>1.91454137020566</v>
+        <v>1.9145413701612355</v>
       </c>
       <c r="J3" s="0">
-        <v>0.7665752072134997</v>
+        <v>0.76657520717550998</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -314,13 +308,13 @@
         <v>523</v>
       </c>
       <c r="M3" s="0">
-        <v>0.076569627755124395</v>
+        <v>0.076569627753227079</v>
       </c>
       <c r="N3" s="0">
-        <v>0.0014635817623723428</v>
+        <v>0.001463581762299917</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P3" s="0"/>
     </row>
@@ -329,31 +323,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0">
-        <v>3.8526133470698595e-06</v>
+        <v>3.8526133443352043e-06</v>
       </c>
       <c r="G4" s="0">
-        <v>1.926306673538658e-05</v>
+        <v>1.9263066721730837e-05</v>
       </c>
       <c r="H4" s="0">
-        <v>0.56344459729798047</v>
+        <v>0.56344459729821494</v>
       </c>
       <c r="I4" s="0">
-        <v>10.257510392288898</v>
+        <v>10.25751039229271</v>
       </c>
       <c r="J4" s="0">
-        <v>21.799219302682825</v>
+        <v>21.79921930410168</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
@@ -362,48 +356,48 @@
         <v>523</v>
       </c>
       <c r="M4" s="0">
-        <v>0.40831903043239726</v>
+        <v>0.40831903044568552</v>
       </c>
       <c r="N4" s="0">
-        <v>0.040013308628791343</v>
+        <v>0.040013308631291496</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0">
-        <v>1.3517621490459705e-06</v>
+        <v>1.3517621478012808e-06</v>
       </c>
       <c r="G5" s="0">
-        <v>8.1105728942931776e-06</v>
+        <v>8.1105728868546834e-06</v>
       </c>
       <c r="H5" s="0">
-        <v>0.52016799517557644</v>
+        <v>0.52016799517528245</v>
       </c>
       <c r="I5" s="0">
-        <v>9.1428594866871151</v>
+        <v>9.142859486680333</v>
       </c>
       <c r="J5" s="0">
-        <v>23.900379229152829</v>
+        <v>23.900379231006678</v>
       </c>
       <c r="K5" s="0">
         <v>1</v>
@@ -412,16 +406,16 @@
         <v>523</v>
       </c>
       <c r="M5" s="0">
-        <v>0.42754471978058473</v>
+        <v>0.42754471979716613</v>
       </c>
       <c r="N5" s="0">
-        <v>0.043701522501849471</v>
+        <v>0.043701522505091066</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -429,31 +423,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0033536460798798203</v>
+        <v>0.0033536460799152225</v>
       </c>
       <c r="G6" s="0">
-        <v>0.010060938239639494</v>
+        <v>0.010060938239745632</v>
       </c>
       <c r="H6" s="0">
-        <v>0.33268672194112714</v>
+        <v>0.33268672193945736</v>
       </c>
       <c r="I6" s="0">
-        <v>5.8123873049075021</v>
+        <v>5.8123873048761476</v>
       </c>
       <c r="J6" s="0">
-        <v>8.683853985090618</v>
+        <v>8.683853985071071</v>
       </c>
       <c r="K6" s="0">
         <v>1</v>
@@ -462,48 +456,48 @@
         <v>523</v>
       </c>
       <c r="M6" s="0">
-        <v>0.2577124545981338</v>
+        <v>0.2577124545978437</v>
       </c>
       <c r="N6" s="0">
-        <v>0.016332739691083658</v>
+        <v>0.016332739691047492</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0">
-        <v>1.4998156166534669e-05</v>
+        <v>1.4998156164950645e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>5.9992624666160843e-05</v>
+        <v>5.9992624659832572e-05</v>
       </c>
       <c r="H7" s="0">
-        <v>0.41124330398124265</v>
+        <v>0.41124330398345688</v>
       </c>
       <c r="I7" s="0">
-        <v>7.0925287199444025</v>
+        <v>7.0925287199844282</v>
       </c>
       <c r="J7" s="0">
-        <v>19.096006858910332</v>
+        <v>19.096006859119292</v>
       </c>
       <c r="K7" s="0">
         <v>1</v>
@@ -512,16 +506,16 @@
         <v>523</v>
       </c>
       <c r="M7" s="0">
-        <v>0.38216457927354003</v>
+        <v>0.38216457927563097</v>
       </c>
       <c r="N7" s="0">
-        <v>0.035226245198814739</v>
+        <v>0.035226245199186629</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/demo/Results_rt/transform/rt/Posthoc_2.xlsx
+++ b/demo/Results_rt/transform/rt/Posthoc_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
@@ -21,12 +21,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>B_1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>B_2</t>
   </si>
   <si>
@@ -36,25 +36,25 @@
     <t>emmCI_1</t>
   </si>
   <si>
-    <t>1.70 (1.67, 1.74)</t>
-  </si>
-  <si>
-    <t>1.74 (1.71, 1.77)</t>
-  </si>
-  <si>
-    <t>1.74 (1.72, 1.77)</t>
-  </si>
-  <si>
-    <t>1.76 (1.73, 1.79)</t>
+    <t>242.49 (201.43, 293.76)</t>
+  </si>
+  <si>
+    <t>294.89 (246.87, 354.23)</t>
+  </si>
+  <si>
+    <t>281.47 (240.23, 331.26)</t>
+  </si>
+  <si>
+    <t>311.36 (262.56, 371.12)</t>
   </si>
   <si>
     <t>emmCI_2</t>
   </si>
   <si>
-    <t>1.80 (1.77, 1.83)</t>
-  </si>
-  <si>
-    <t>1.83 (1.80, 1.85)</t>
+    <t>370.28 (308.01, 447.71)</t>
+  </si>
+  <si>
+    <t>451.44 (380.15, 538.72)</t>
   </si>
   <si>
     <t>p</t>
@@ -87,22 +87,22 @@
     <t>effectSize</t>
   </si>
   <si>
+    <t>very small</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>very small</t>
-  </si>
-  <si>
     <t>small to medium</t>
   </si>
   <si>
     <t>significance</t>
   </si>
   <si>
+    <t>**</t>
+  </si>
+  <si>
     <t>***</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -157,17 +157,17 @@
     <col min="1" max="1" width="2.42578125" customWidth="true"/>
     <col min="2" max="2" width="4.28515625" customWidth="true"/>
     <col min="3" max="3" width="4.28515625" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="15.5703125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="20.7109375" customWidth="true"/>
+    <col min="5" max="5" width="20.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
     <col min="13" max="13" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="14" max="14" width="15.7109375" customWidth="true"/>
     <col min="15" max="15" width="16" customWidth="true"/>
     <col min="16" max="16" width="11.5703125" customWidth="true"/>
   </cols>
@@ -177,7 +177,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>4</v>
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -239,31 +239,31 @@
         <v>9</v>
       </c>
       <c r="F2" s="0">
-        <v>0.05848951484074856</v>
+        <v>0.2336300876937073</v>
       </c>
       <c r="G2" s="0">
-        <v>0.11697902968149709</v>
+        <v>0.4672601753874146</v>
       </c>
       <c r="H2" s="0">
-        <v>0.23075787535875758</v>
+        <v>38.976356862134679</v>
       </c>
       <c r="I2" s="0">
-        <v>4.200947734605851</v>
+        <v>16.073398551885493</v>
       </c>
       <c r="J2" s="0">
-        <v>3.5954298612858722</v>
+        <v>1.4218417694897869</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
       </c>
       <c r="L2" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M2" s="0">
-        <v>0.16582673953043697</v>
+        <v>0.10320126038954619</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0068276890709685215</v>
+        <v>0.0026555542911563166</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>24</v>
@@ -272,13 +272,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -287,34 +287,34 @@
         <v>10</v>
       </c>
       <c r="F3" s="0">
-        <v>0.38168054952489083</v>
+        <v>0.67187921176160059</v>
       </c>
       <c r="G3" s="0">
-        <v>0.38168054952489083</v>
+        <v>0.67187921176160059</v>
       </c>
       <c r="H3" s="0">
-        <v>0.10892469119182557</v>
+        <v>16.472334019603863</v>
       </c>
       <c r="I3" s="0">
-        <v>1.9145413701612355</v>
+        <v>5.5859852480910801</v>
       </c>
       <c r="J3" s="0">
-        <v>0.76657520717550998</v>
+        <v>0.17961006906581103</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
       </c>
       <c r="L3" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M3" s="0">
-        <v>0.076569627753227079</v>
+        <v>0.03667960980945497</v>
       </c>
       <c r="N3" s="0">
-        <v>0.001463581762299917</v>
+        <v>0.0003362353517061212</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P3" s="0"/>
     </row>
@@ -335,34 +335,34 @@
         <v>12</v>
       </c>
       <c r="F4" s="0">
-        <v>3.8526133443352043e-06</v>
+        <v>0.00092883401152842233</v>
       </c>
       <c r="G4" s="0">
-        <v>1.9263066721730837e-05</v>
+        <v>0.0037153360461137375</v>
       </c>
       <c r="H4" s="0">
-        <v>0.56344459729821494</v>
+        <v>127.78548496706495</v>
       </c>
       <c r="I4" s="0">
-        <v>10.25751039229271</v>
+        <v>52.697255320365912</v>
       </c>
       <c r="J4" s="0">
-        <v>21.79921930410168</v>
+        <v>11.088114994320843</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
       </c>
       <c r="L4" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M4" s="0">
-        <v>0.40831903044568552</v>
+        <v>0.28819618518634382</v>
       </c>
       <c r="N4" s="0">
-        <v>0.040013308631291496</v>
+        <v>0.020341876275244728</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>28</v>
@@ -370,7 +370,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>1</v>
@@ -385,37 +385,37 @@
         <v>13</v>
       </c>
       <c r="F5" s="0">
-        <v>1.3517621478012808e-06</v>
+        <v>0.0001513355496398704</v>
       </c>
       <c r="G5" s="0">
-        <v>8.1105728868546834e-06</v>
+        <v>0.00090801329783918305</v>
       </c>
       <c r="H5" s="0">
-        <v>0.52016799517528245</v>
+        <v>156.55101613330896</v>
       </c>
       <c r="I5" s="0">
-        <v>9.142859486680333</v>
+        <v>53.088509840414403</v>
       </c>
       <c r="J5" s="0">
-        <v>23.900379231006678</v>
+        <v>14.564001308544976</v>
       </c>
       <c r="K5" s="0">
         <v>1</v>
       </c>
       <c r="L5" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M5" s="0">
-        <v>0.42754471979716613</v>
+        <v>0.33029326781004259</v>
       </c>
       <c r="N5" s="0">
-        <v>0.043701522505091066</v>
+        <v>0.026549320177415934</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
@@ -435,45 +435,43 @@
         <v>12</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0033536460799152225</v>
+        <v>0.02548828932562016</v>
       </c>
       <c r="G6" s="0">
-        <v>0.010060938239745632</v>
+        <v>0.076464867976860473</v>
       </c>
       <c r="H6" s="0">
-        <v>0.33268672193945736</v>
+        <v>88.809128104930267</v>
       </c>
       <c r="I6" s="0">
-        <v>5.8123873048761476</v>
+        <v>31.552325705453811</v>
       </c>
       <c r="J6" s="0">
-        <v>8.683853985071071</v>
+        <v>5.0185081682503325</v>
       </c>
       <c r="K6" s="0">
         <v>1</v>
       </c>
       <c r="L6" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M6" s="0">
-        <v>0.2577124545978437</v>
+        <v>0.19388610441447632</v>
       </c>
       <c r="N6" s="0">
-        <v>0.016332739691047492</v>
+        <v>0.0093104561201520827</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
@@ -485,31 +483,31 @@
         <v>13</v>
       </c>
       <c r="F7" s="0">
-        <v>1.4998156164950645e-05</v>
+        <v>0.00040365845665225718</v>
       </c>
       <c r="G7" s="0">
-        <v>5.9992624659832572e-05</v>
+        <v>0.0020182922832613359</v>
       </c>
       <c r="H7" s="0">
-        <v>0.41124330398345688</v>
+        <v>140.0786821137051</v>
       </c>
       <c r="I7" s="0">
-        <v>7.0925287199844282</v>
+        <v>44.989422110054264</v>
       </c>
       <c r="J7" s="0">
-        <v>19.096006859119292</v>
+        <v>12.674970065315163</v>
       </c>
       <c r="K7" s="0">
         <v>1</v>
       </c>
       <c r="L7" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M7" s="0">
-        <v>0.38216457927563097</v>
+        <v>0.3081291871843207</v>
       </c>
       <c r="N7" s="0">
-        <v>0.035226245199186629</v>
+        <v>0.023185568682247869</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>26</v>
